--- a/Database/Finalize logic tree/Dodge_Ram 1500_Low power hard acceleration.xlsx
+++ b/Database/Finalize logic tree/Dodge_Ram 1500_Low power hard acceleration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147CAD08-F6C9-460F-BDA6-19C76FD01975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC9E6C-EE57-46B7-8056-18824057C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="924" windowWidth="16500" windowHeight="12360" xr2:uid="{31F8942B-1DEF-49CA-ADDC-52A280A2CC9A}"/>
+    <workbookView xWindow="1152" yWindow="144" windowWidth="17424" windowHeight="12360" xr2:uid="{31F8942B-1DEF-49CA-ADDC-52A280A2CC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Node1</t>
   </si>
@@ -104,9 +104,6 @@
 5% Camshaft Position Sensor</t>
   </si>
   <si>
-    <t>Problem:Is problem more frequent when the engine is warmed up? (Please answer as: Yes, No)</t>
-  </si>
-  <si>
     <t>Possible_Problem:50% Electronic Throttle Body
 20% Camshaft Position Sensor
 10% VVT Oil Control Valve
@@ -125,6 +122,15 @@
 30% Camshaft Position Sensor
 10% VVT Oil Control Valve
 10% VVT Actuators</t>
+  </si>
+  <si>
+    <t>Problem:Is problem more frequent or once in awhile when the engine is warmed up?</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>Once in a while</t>
   </si>
 </sst>
 </file>
@@ -481,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD86783F-4756-4884-A460-23CA6E193882}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -572,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
@@ -588,35 +594,35 @@
     </row>
     <row r="10" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
